--- a/public/static/images/customer-example-template.xlsx
+++ b/public/static/images/customer-example-template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>客户名称</t>
   </si>
@@ -24,7 +24,19 @@
     <t>联系电话</t>
   </si>
   <si>
+    <t>所在地</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
     <t>测试客户</t>
+  </si>
+  <si>
+    <t>广东省</t>
+  </si>
+  <si>
+    <t>123456@qq.com</t>
   </si>
 </sst>
 </file>
@@ -32,10 +44,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -43,6 +55,135 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -55,136 +196,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,13 +217,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,43 +343,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,85 +373,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,31 +385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +408,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -416,53 +472,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,17 +494,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,137 +528,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,6 +670,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1007,35 +1022,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>13888888888</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="123456@qq.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/public/static/images/customer-example-template.xlsx
+++ b/public/static/images/customer-example-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>客户名称</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>邮箱</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>测试客户</t>
@@ -45,11 +48,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +61,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -70,6 +81,74 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -83,14 +162,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -98,21 +185,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -121,82 +200,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,13 +228,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,25 +342,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,43 +384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,91 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,11 +422,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,8 +503,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,60 +519,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -516,10 +527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,150 +539,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,45 +1036,50 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>13888888888</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/images/customer-example-template.xlsx
+++ b/public/static/images/customer-example-template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>客户名称</t>
   </si>
@@ -33,13 +33,25 @@
     <t>备注</t>
   </si>
   <si>
-    <t>测试客户</t>
+    <t>专业</t>
   </si>
   <si>
-    <t>广东省</t>
+    <t>测试用户</t>
   </si>
   <si>
-    <t>123456@qq.com</t>
+    <t>东莞</t>
+  </si>
+  <si>
+    <t>test@email.com</t>
+  </si>
+  <si>
+    <t>这里是备注</t>
+  </si>
+  <si>
+    <t>这里是专业</t>
+  </si>
+  <si>
+    <t>测试用户2</t>
   </si>
 </sst>
 </file>
@@ -213,18 +225,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -527,10 +533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,16 +545,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,52 +566,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -614,16 +620,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,54 +644,42 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
@@ -1036,55 +1033,74 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>13888888888</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>13444444444</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="123456@qq.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="test@email.com" tooltip="mailto:test@email.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/public/static/images/customer-example-template.xlsx
+++ b/public/static/images/customer-example-template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>客户名称</t>
   </si>
@@ -36,6 +36,9 @@
     <t>专业</t>
   </si>
   <si>
+    <t>证书类型</t>
+  </si>
+  <si>
     <t>测试用户</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
   </si>
   <si>
     <t>这里是专业</t>
+  </si>
+  <si>
+    <t>这里是证书</t>
   </si>
   <si>
     <t>测试用户2</t>
@@ -1033,24 +1039,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="7.375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="6" width="10.875" customWidth="1"/>
+    <col min="5" max="7" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,30 +1075,36 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>13888888888</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>13444444444</v>

--- a/public/static/images/customer-example-template.xlsx
+++ b/public/static/images/customer-example-template.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>客户名称</t>
+    <t>名称</t>
   </si>
   <si>
     <t>联系电话</t>
@@ -1044,7 +1044,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
